--- a/.readme_assets/SIME_tenure_CCF.xlsx
+++ b/.readme_assets/SIME_tenure_CCF.xlsx
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>ACM Symposium on Virtual Reality Software and Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>http://dblp2.uni-trier.de/db/conf/vrst/</t>
@@ -1584,12 +1581,16 @@
     <t>Frontiers of Algorithmics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>VRST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2017,14 +2018,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="72.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
@@ -2034,38 +2035,38 @@
     <col min="9" max="9" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2092,9 +2093,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2121,9 +2122,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2150,9 +2151,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -2164,10 +2165,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -2176,12 +2177,12 @@
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -2190,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -2205,12 +2206,12 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -2237,9 +2238,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -2266,9 +2267,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -2277,27 +2278,27 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -2309,24 +2310,24 @@
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>2</v>
@@ -2335,27 +2336,27 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>2</v>
@@ -2382,9 +2383,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -2411,9 +2412,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -2440,9 +2441,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -2469,9 +2470,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>2</v>
@@ -2498,9 +2499,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -2509,7 +2510,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2517,9 +2518,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
@@ -2543,12 +2544,12 @@
         <v>7</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
@@ -2575,9 +2576,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -2604,9 +2605,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -2615,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2623,9 +2624,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -2652,9 +2653,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>2</v>
@@ -2681,9 +2682,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2710,9 +2711,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -2739,9 +2740,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -2753,24 +2754,24 @@
         <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -2797,9 +2798,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -2811,24 +2812,24 @@
         <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2855,9 +2856,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -2884,9 +2885,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -2895,13 +2896,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>85</v>
@@ -2910,12 +2911,12 @@
         <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -2924,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>86</v>
@@ -2939,12 +2940,12 @@
         <v>138</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -2971,9 +2972,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -3000,9 +3001,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -3029,9 +3030,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
@@ -3058,9 +3059,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -3087,9 +3088,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
@@ -3116,9 +3117,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
@@ -3127,27 +3128,27 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -3174,9 +3175,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
@@ -3185,27 +3186,27 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -3214,27 +3215,27 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
@@ -3246,10 +3247,10 @@
         <v>110</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>110</v>
@@ -3258,12 +3259,12 @@
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -3290,9 +3291,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
@@ -3319,9 +3320,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
@@ -3348,9 +3349,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -3359,27 +3360,27 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>2</v>
@@ -3406,9 +3407,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
@@ -3435,9 +3436,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
@@ -3446,27 +3447,27 @@
         <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>2</v>
@@ -3493,9 +3494,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
@@ -3522,9 +3523,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>2</v>
@@ -3533,27 +3534,27 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>2</v>
@@ -3562,27 +3563,27 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
@@ -3609,9 +3610,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>2</v>
@@ -3620,27 +3621,27 @@
         <v>13</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
@@ -3667,9 +3668,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>2</v>
@@ -3681,24 +3682,24 @@
         <v>140</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
@@ -3725,9 +3726,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>22</v>
@@ -3739,24 +3740,24 @@
         <v>145</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>22</v>
@@ -3783,9 +3784,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>22</v>
@@ -3812,9 +3813,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>22</v>
@@ -3841,9 +3842,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>22</v>
@@ -3852,13 +3853,13 @@
         <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>157</v>
@@ -3867,12 +3868,12 @@
         <v>7</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
@@ -3887,7 +3888,7 @@
         <v>147</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>159</v>
+        <v>424</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>158</v>
@@ -3896,41 +3897,41 @@
         <v>7</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>22</v>
@@ -3939,56 +3940,56 @@
         <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>22</v>
@@ -3997,27 +3998,27 @@
         <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
@@ -4026,57 +4027,57 @@
         <v>141</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="E71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
@@ -4084,19 +4085,19 @@
         <v>141</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>22</v>
@@ -4105,27 +4106,27 @@
         <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>22</v>
@@ -4134,19 +4135,19 @@
         <v>141</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>22</v>
@@ -4155,19 +4156,19 @@
         <v>141</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
@@ -4176,19 +4177,19 @@
         <v>141</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
@@ -4197,27 +4198,27 @@
         <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
@@ -4226,27 +4227,27 @@
         <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
@@ -4255,19 +4256,19 @@
         <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>22</v>
@@ -4276,19 +4277,19 @@
         <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>22</v>
@@ -4297,19 +4298,19 @@
         <v>141</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>22</v>
@@ -4318,85 +4319,85 @@
         <v>141</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I82" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="I83" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>22</v>
@@ -4405,27 +4406,27 @@
         <v>141</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>22</v>
@@ -4434,27 +4435,27 @@
         <v>141</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>22</v>
@@ -4463,85 +4464,85 @@
         <v>141</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I87" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="I88" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
@@ -4550,27 +4551,27 @@
         <v>141</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>22</v>
@@ -4579,19 +4580,19 @@
         <v>141</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>22</v>
@@ -4600,85 +4601,85 @@
         <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="I93" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>22</v>
@@ -4687,27 +4688,27 @@
         <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>22</v>
@@ -4716,27 +4717,27 @@
         <v>141</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
@@ -4745,27 +4746,27 @@
         <v>141</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>22</v>
@@ -4774,27 +4775,27 @@
         <v>141</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>22</v>
@@ -4803,77 +4804,77 @@
         <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>22</v>
@@ -4882,56 +4883,56 @@
         <v>141</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>22</v>
@@ -4940,56 +4941,56 @@
         <v>141</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="G105" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>22</v>
@@ -4998,27 +4999,27 @@
         <v>141</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>22</v>
@@ -5027,138 +5028,138 @@
         <v>141</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/.readme_assets/SIME_tenure_CCF.xlsx
+++ b/.readme_assets/SIME_tenure_CCF.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$111</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="426">
   <si>
     <t>Tier Level</t>
   </si>
@@ -1462,10 +1462,6 @@
   </si>
   <si>
     <t>SEKE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Conference on Software Engineering and_x000D_Knowledge Engineering</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1583,6 +1579,14 @@
   </si>
   <si>
     <t>VRST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Mobile Ad Hoc Networking and Computing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Software Engineering and_x000D_ Knowledge Engineering</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2016,10 +2020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2027,10 +2032,10 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="72.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.21875" customWidth="1"/>
+    <col min="7" max="7" width="77.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="51.44140625" customWidth="1"/>
   </cols>
@@ -2064,94 +2069,94 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>299</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1" t="s">
         <v>341</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1" t="s">
         <v>341</v>
       </c>
@@ -2209,36 +2214,36 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1" t="s">
         <v>342</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1" t="s">
         <v>342</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1" t="s">
         <v>342</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="1" t="s">
         <v>342</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1" t="s">
         <v>342</v>
       </c>
@@ -2383,7 +2388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
@@ -2412,7 +2417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1" t="s">
         <v>343</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1" t="s">
         <v>343</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1" t="s">
         <v>343</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2518,7 +2523,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1" t="s">
         <v>343</v>
       </c>
@@ -2544,10 +2549,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1" t="s">
         <v>343</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="1" t="s">
         <v>343</v>
       </c>
@@ -2624,7 +2629,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1" t="s">
         <v>343</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1" t="s">
         <v>344</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1" t="s">
         <v>344</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1" t="s">
         <v>344</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1" t="s">
         <v>344</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1" t="s">
         <v>344</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="1" t="s">
         <v>344</v>
       </c>
@@ -2827,7 +2832,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="1" t="s">
         <v>344</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="1" t="s">
         <v>344</v>
       </c>
@@ -2890,28 +2895,28 @@
         <v>345</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>252</v>
+        <v>393</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>394</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2925,22 +2930,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2977,29 +2982,21 @@
         <v>345</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
@@ -3038,25 +3035,25 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3064,31 +3061,31 @@
         <v>345</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>398</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="1" t="s">
         <v>346</v>
       </c>
@@ -3096,86 +3093,86 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>258</v>
+        <v>411</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>259</v>
+        <v>412</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>260</v>
+        <v>413</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>415</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>416</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="1" t="s">
         <v>346</v>
       </c>
@@ -3186,54 +3183,46 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>317</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="1" t="s">
         <v>346</v>
       </c>
@@ -3244,25 +3233,25 @@
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="1" t="s">
         <v>346</v>
       </c>
@@ -3273,141 +3262,141 @@
         <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
+        <v>419</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>117</v>
+        <v>418</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="1" t="s">
         <v>347</v>
       </c>
@@ -3415,28 +3404,28 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="1" t="s">
         <v>347</v>
       </c>
@@ -3465,36 +3454,36 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="1" t="s">
         <v>347</v>
       </c>
@@ -3502,28 +3491,28 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="1" t="s">
         <v>347</v>
       </c>
@@ -3534,25 +3523,25 @@
         <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
@@ -3563,112 +3552,112 @@
         <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="1" t="s">
         <v>347</v>
       </c>
@@ -3679,112 +3668,112 @@
         <v>13</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>278</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="1" t="s">
         <v>341</v>
       </c>
@@ -3795,54 +3784,54 @@
         <v>141</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="1" t="s">
         <v>342</v>
       </c>
@@ -3871,7 +3860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="1" t="s">
         <v>342</v>
       </c>
@@ -3888,7 +3877,7 @@
         <v>147</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>158</v>
@@ -3900,7 +3889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="1" t="s">
         <v>342</v>
       </c>
@@ -3929,7 +3918,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="1" t="s">
         <v>342</v>
       </c>
@@ -3958,7 +3947,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="1" t="s">
         <v>342</v>
       </c>
@@ -3987,7 +3976,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="1" t="s">
         <v>342</v>
       </c>
@@ -4016,7 +4005,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -4045,7 +4034,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="1" t="s">
         <v>342</v>
       </c>
@@ -4074,7 +4063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="1" t="s">
         <v>343</v>
       </c>
@@ -4095,7 +4084,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="1" t="s">
         <v>343</v>
       </c>
@@ -4124,7 +4113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="1" t="s">
         <v>343</v>
       </c>
@@ -4135,7 +4124,7 @@
         <v>141</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -4145,7 +4134,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="1" t="s">
         <v>343</v>
       </c>
@@ -4166,7 +4155,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="1" t="s">
         <v>343</v>
       </c>
@@ -4187,7 +4176,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="1" t="s">
         <v>343</v>
       </c>
@@ -4216,7 +4205,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="1" t="s">
         <v>343</v>
       </c>
@@ -4245,7 +4234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="1" t="s">
         <v>343</v>
       </c>
@@ -4266,7 +4255,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="1" t="s">
         <v>343</v>
       </c>
@@ -4287,7 +4276,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="1" t="s">
         <v>343</v>
       </c>
@@ -4308,7 +4297,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="1" t="s">
         <v>344</v>
       </c>
@@ -4337,7 +4326,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="1" t="s">
         <v>344</v>
       </c>
@@ -4366,7 +4355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="1" t="s">
         <v>344</v>
       </c>
@@ -4395,7 +4384,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="1" t="s">
         <v>344</v>
       </c>
@@ -4424,7 +4413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="1" t="s">
         <v>344</v>
       </c>
@@ -4453,7 +4442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
@@ -4482,7 +4471,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="1" t="s">
         <v>344</v>
       </c>
@@ -4522,22 +4511,22 @@
         <v>141</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4545,28 +4534,28 @@
         <v>345</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>392</v>
+        <v>100</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>358</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>393</v>
+        <v>101</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>394</v>
+        <v>100</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4574,21 +4563,29 @@
         <v>345</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E91" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
@@ -4601,22 +4598,22 @@
         <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4630,22 +4627,22 @@
         <v>141</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>315</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4653,28 +4650,28 @@
         <v>345</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>397</v>
+        <v>22</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4688,54 +4685,54 @@
         <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>411</v>
+        <v>237</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="1" t="s">
         <v>346</v>
       </c>
@@ -4746,133 +4743,141 @@
         <v>141</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>412</v>
+        <v>199</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>414</v>
+        <v>321</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>415</v>
+        <v>114</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>416</v>
+        <v>2</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>417</v>
+        <v>115</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>419</v>
+        <v>104</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>419</v>
+        <v>104</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="1" t="s">
         <v>346</v>
       </c>
@@ -4883,54 +4888,54 @@
         <v>141</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>321</v>
+        <v>410</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="1" t="s">
         <v>347</v>
       </c>
@@ -4941,141 +4946,141 @@
         <v>141</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="1" t="s">
         <v>347</v>
       </c>
@@ -5086,25 +5091,25 @@
         <v>141</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="1" t="s">
         <v>347</v>
       </c>
@@ -5115,60 +5120,70 @@
         <v>141</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>327</v>
+        <v>147</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>328</v>
+        <v>217</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I111">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="软件工程"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A31:I95">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I56" r:id="rId1"/>
+    <hyperlink ref="I54" r:id="rId1"/>
     <hyperlink ref="I18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/.readme_assets/SIME_tenure_CCF.xlsx
+++ b/.readme_assets/SIME_tenure_CCF.xlsx
@@ -2020,11 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2032,10 +2031,10 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="88.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
     <col min="9" max="9" width="51.44140625" customWidth="1"/>
   </cols>
@@ -2069,7 +2068,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>341</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>341</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>341</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>341</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>341</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>342</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>342</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>342</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>342</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>342</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>342</v>
       </c>
@@ -2417,36 +2416,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1">
+        <v>364</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>343</v>
       </c>
@@ -2454,105 +2445,99 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1">
+        <v>354</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" hidden="1">
+        <v>141</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1">
+        <v>352</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
@@ -2560,28 +2545,28 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>343</v>
       </c>
@@ -2592,73 +2577,75 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" hidden="1">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1">
+        <v>368</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>344</v>
       </c>
@@ -2687,7 +2674,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>344</v>
       </c>
@@ -2716,7 +2703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>344</v>
       </c>
@@ -2745,7 +2732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>344</v>
       </c>
@@ -2774,7 +2761,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>344</v>
       </c>
@@ -2803,7 +2790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>344</v>
       </c>
@@ -2832,7 +2819,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>344</v>
       </c>
@@ -2861,7 +2848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>344</v>
       </c>
@@ -3085,7 +3072,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>346</v>
       </c>
@@ -3114,7 +3101,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>346</v>
       </c>
@@ -3143,7 +3130,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>346</v>
       </c>
@@ -3172,7 +3159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>346</v>
       </c>
@@ -3201,7 +3188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>346</v>
       </c>
@@ -3222,7 +3209,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>346</v>
       </c>
@@ -3251,7 +3238,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>346</v>
       </c>
@@ -3280,7 +3267,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
@@ -3309,7 +3296,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>346</v>
       </c>
@@ -3338,7 +3325,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>347</v>
       </c>
@@ -3367,7 +3354,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>347</v>
       </c>
@@ -3396,7 +3383,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>347</v>
       </c>
@@ -3425,7 +3412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>347</v>
       </c>
@@ -3454,7 +3441,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>347</v>
       </c>
@@ -3483,7 +3470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>347</v>
       </c>
@@ -3512,7 +3499,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>347</v>
       </c>
@@ -3541,7 +3528,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
@@ -3570,7 +3557,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>347</v>
       </c>
@@ -3599,7 +3586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>347</v>
       </c>
@@ -3628,7 +3615,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>347</v>
       </c>
@@ -3657,7 +3644,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>347</v>
       </c>
@@ -3686,7 +3673,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>341</v>
       </c>
@@ -3715,7 +3702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>341</v>
       </c>
@@ -3744,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>341</v>
       </c>
@@ -3773,7 +3760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>341</v>
       </c>
@@ -3802,7 +3789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>341</v>
       </c>
@@ -3831,7 +3818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>342</v>
       </c>
@@ -3860,7 +3847,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>342</v>
       </c>
@@ -3889,7 +3876,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>342</v>
       </c>
@@ -3918,7 +3905,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>342</v>
       </c>
@@ -3947,7 +3934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>342</v>
       </c>
@@ -3976,7 +3963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>342</v>
       </c>
@@ -4005,7 +3992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
@@ -4034,7 +4021,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>342</v>
       </c>
@@ -4063,7 +4050,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>343</v>
       </c>
@@ -4074,88 +4061,104 @@
         <v>141</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>348</v>
+        <v>48</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>349</v>
+        <v>22</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1">
+        <v>7</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+        <v>41</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+        <v>52</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>343</v>
       </c>
@@ -4166,46 +4169,54 @@
         <v>141</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
+        <v>361</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>358</v>
+        <v>2</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>359</v>
+        <v>38</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>343</v>
       </c>
@@ -4216,25 +4227,17 @@
         <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1">
+        <v>311</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>343</v>
       </c>
@@ -4245,59 +4248,55 @@
         <v>141</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>365</v>
+        <v>13</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>367</v>
+        <v>13</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>344</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>344</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>344</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>344</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>344</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>344</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>346</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>346</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>346</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
         <v>346</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
         <v>346</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
         <v>346</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>346</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
         <v>347</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
         <v>347</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
@@ -4993,7 +4992,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>347</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
         <v>347</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
         <v>347</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>347</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
         <v>347</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
@@ -5168,20 +5167,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I111">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="软件工程"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A31:I95">
-      <sortCondition ref="F1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I54" r:id="rId1"/>
-    <hyperlink ref="I18" r:id="rId2"/>
+    <hyperlink ref="I73" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
